--- a/汽柴煤油2.0/data_input/石脑油-Brent拟合残差.xlsx
+++ b/汽柴煤油2.0/data_input/石脑油-Brent拟合残差.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3716"/>
+  <dimension ref="A1:D3718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51947,10 +51947,38 @@
       <c r="A3716" s="2" t="n">
         <v>45954</v>
       </c>
-      <c r="B3716" t="inlineStr"/>
-      <c r="C3716" t="inlineStr"/>
+      <c r="B3716" t="n">
+        <v>97.7898</v>
+      </c>
+      <c r="C3716" t="n">
+        <v>-11.8241</v>
+      </c>
       <c r="D3716" t="n">
         <v>65.94</v>
+      </c>
+    </row>
+    <row r="3717">
+      <c r="A3717" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3717" t="n">
+        <v>96.6354</v>
+      </c>
+      <c r="C3717" t="n">
+        <v>-13.9354</v>
+      </c>
+      <c r="D3717" t="n">
+        <v>65.62</v>
+      </c>
+    </row>
+    <row r="3718">
+      <c r="A3718" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3718" t="inlineStr"/>
+      <c r="C3718" t="inlineStr"/>
+      <c r="D3718" t="n">
+        <v>64.20999999999999</v>
       </c>
     </row>
   </sheetData>
